--- a/[KCK] Wybór tematu projektu - grupa I6.1.xlsx
+++ b/[KCK] Wybór tematu projektu - grupa I6.1.xlsx
@@ -99,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -229,20 +229,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -290,14 +276,11 @@
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -309,6 +292,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,8 +574,10 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="19">
+        <v>145264.0</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
@@ -599,7 +587,7 @@
       <c r="C8" s="17">
         <v>145243.0</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -619,7 +607,7 @@
       <c r="C10" s="17">
         <v>145244.0</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -639,14 +627,14 @@
       <c r="C12" s="17">
         <v>145192.0</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>145406.0</v>
       </c>
       <c r="D13" s="11"/>
@@ -659,7 +647,7 @@
       <c r="C14" s="17">
         <v>145290.0</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -676,13 +664,13 @@
       <c r="B16" s="16">
         <v>7.0</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18">
@@ -724,7 +712,7 @@
       <c r="D21" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="F3:H5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
@@ -732,6 +720,7 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B20:B21"/>
